--- a/地线运力调研结果_260210-260322v2.xlsx
+++ b/地线运力调研结果_260210-260322v2.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\demo\capaStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2ABDF1B-F298-4C1A-9777-5BB51998BB97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E8F97B-B378-42CA-8C45-7A0916F71010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="3" xr2:uid="{EF6FEEB6-9BBD-42AA-91D0-BB1E2C642DAA}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="4" xr2:uid="{EF6FEEB6-9BBD-42AA-91D0-BB1E2C642DAA}"/>
   </bookViews>
   <sheets>
     <sheet name="OCEAN联盟校对" sheetId="2" r:id="rId1"/>
     <sheet name="PA+MSC联盟校对" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
     <sheet name="EzOceaen抓取结果" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -98,6 +99,28 @@
     </comment>
   </commentList>
 </comments>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5949,34 +5972,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5988,31 +5993,22 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6027,10 +6023,64 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6045,38 +6095,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6710,13 +6733,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C3952F7-1DE8-4592-B8E9-DA1FF5C9C921}" name="表1" displayName="表1" ref="A1:P334" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
-  <autoFilter ref="A1:P334" xr:uid="{0C3952F7-1DE8-4592-B8E9-DA1FF5C9C921}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="HMM(MD3) MSC(TIGER) ONE(MD3) YML(MD3)"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:P334" xr:uid="{0C3952F7-1DE8-4592-B8E9-DA1FF5C9C921}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A62:O79">
     <sortCondition ref="O1:O334"/>
   </sortState>
@@ -7117,48 +7134,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="34.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="91" t="s">
         <v>1359</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="111"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="93"/>
     </row>
     <row r="2" spans="1:20" ht="28.15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="113" t="s">
         <v>1313</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="98"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="115"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="98" t="s">
         <v>1317</v>
       </c>
-      <c r="B3" s="106" t="s">
+      <c r="B3" s="108" t="s">
         <v>1309</v>
       </c>
-      <c r="C3" s="107"/>
-      <c r="D3" s="108" t="s">
+      <c r="C3" s="109"/>
+      <c r="D3" s="110" t="s">
         <v>1310</v>
       </c>
-      <c r="E3" s="107"/>
-      <c r="F3" s="104" t="s">
+      <c r="E3" s="109"/>
+      <c r="F3" s="117" t="s">
         <v>1339</v>
       </c>
-      <c r="G3" s="94" t="s">
+      <c r="G3" s="98" t="s">
         <v>1344</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A4" s="95"/>
+      <c r="A4" s="99"/>
       <c r="B4" s="16" t="s">
         <v>1311</v>
       </c>
@@ -7171,8 +7188,8 @@
       <c r="E4" s="6" t="s">
         <v>1312</v>
       </c>
-      <c r="F4" s="105"/>
-      <c r="G4" s="95"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="99"/>
     </row>
     <row r="5" spans="1:20" ht="15" x14ac:dyDescent="0.5">
       <c r="A5" s="21">
@@ -7631,15 +7648,15 @@
       <c r="T23" s="13"/>
     </row>
     <row r="24" spans="1:20" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="91" t="s">
+      <c r="A24" s="100" t="s">
         <v>1349</v>
       </c>
-      <c r="B24" s="92"/>
-      <c r="C24" s="92"/>
-      <c r="D24" s="92"/>
-      <c r="E24" s="92"/>
-      <c r="F24" s="92"/>
-      <c r="G24" s="93"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="102"/>
       <c r="H24" s="3"/>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
@@ -7662,15 +7679,15 @@
       <c r="T25" s="3"/>
     </row>
     <row r="26" spans="1:20" ht="28.15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="101" t="s">
+      <c r="A26" s="95" t="s">
         <v>1314</v>
       </c>
-      <c r="B26" s="102"/>
-      <c r="C26" s="102"/>
-      <c r="D26" s="102"/>
-      <c r="E26" s="102"/>
-      <c r="F26" s="102"/>
-      <c r="G26" s="103"/>
+      <c r="B26" s="96"/>
+      <c r="C26" s="96"/>
+      <c r="D26" s="96"/>
+      <c r="E26" s="96"/>
+      <c r="F26" s="96"/>
+      <c r="G26" s="97"/>
       <c r="H26" s="3"/>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
@@ -7679,21 +7696,21 @@
       <c r="T26" s="3"/>
     </row>
     <row r="27" spans="1:20" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A27" s="99" t="s">
+      <c r="A27" s="103" t="s">
         <v>1317</v>
       </c>
-      <c r="B27" s="106" t="s">
+      <c r="B27" s="108" t="s">
         <v>1309</v>
       </c>
-      <c r="C27" s="107"/>
-      <c r="D27" s="108" t="s">
+      <c r="C27" s="109"/>
+      <c r="D27" s="110" t="s">
         <v>1310</v>
       </c>
-      <c r="E27" s="107"/>
-      <c r="F27" s="94" t="s">
+      <c r="E27" s="109"/>
+      <c r="F27" s="98" t="s">
         <v>1339</v>
       </c>
-      <c r="G27" s="94" t="s">
+      <c r="G27" s="98" t="s">
         <v>1344</v>
       </c>
       <c r="H27" s="3"/>
@@ -7704,7 +7721,7 @@
       <c r="T27" s="3"/>
     </row>
     <row r="28" spans="1:20" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A28" s="100"/>
+      <c r="A28" s="116"/>
       <c r="B28" s="16" t="s">
         <v>1311</v>
       </c>
@@ -7717,8 +7734,8 @@
       <c r="E28" s="6" t="s">
         <v>1312</v>
       </c>
-      <c r="F28" s="95"/>
-      <c r="G28" s="95"/>
+      <c r="F28" s="99"/>
+      <c r="G28" s="99"/>
       <c r="H28" s="3"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
@@ -8077,52 +8094,52 @@
       <c r="G44" s="41"/>
     </row>
     <row r="45" spans="1:7" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="91" t="s">
+      <c r="A45" s="100" t="s">
         <v>1336</v>
       </c>
-      <c r="B45" s="92"/>
-      <c r="C45" s="92"/>
-      <c r="D45" s="92"/>
-      <c r="E45" s="92"/>
-      <c r="F45" s="92"/>
-      <c r="G45" s="93"/>
+      <c r="B45" s="101"/>
+      <c r="C45" s="101"/>
+      <c r="D45" s="101"/>
+      <c r="E45" s="101"/>
+      <c r="F45" s="101"/>
+      <c r="G45" s="102"/>
     </row>
     <row r="46" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A46" s="67"/>
       <c r="G46" s="68"/>
     </row>
     <row r="47" spans="1:7" ht="28.15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="113" t="s">
+      <c r="A47" s="104" t="s">
         <v>1315</v>
       </c>
-      <c r="B47" s="114"/>
-      <c r="C47" s="114"/>
-      <c r="D47" s="114"/>
-      <c r="E47" s="114"/>
-      <c r="F47" s="114"/>
-      <c r="G47" s="115"/>
+      <c r="B47" s="105"/>
+      <c r="C47" s="105"/>
+      <c r="D47" s="105"/>
+      <c r="E47" s="105"/>
+      <c r="F47" s="105"/>
+      <c r="G47" s="106"/>
     </row>
     <row r="48" spans="1:7" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A48" s="99" t="s">
+      <c r="A48" s="103" t="s">
         <v>1317</v>
       </c>
-      <c r="B48" s="106" t="s">
+      <c r="B48" s="108" t="s">
         <v>1309</v>
       </c>
-      <c r="C48" s="107"/>
-      <c r="D48" s="108" t="s">
+      <c r="C48" s="109"/>
+      <c r="D48" s="110" t="s">
         <v>1310</v>
       </c>
-      <c r="E48" s="107"/>
-      <c r="F48" s="94" t="s">
+      <c r="E48" s="109"/>
+      <c r="F48" s="98" t="s">
         <v>1339</v>
       </c>
-      <c r="G48" s="94" t="s">
+      <c r="G48" s="98" t="s">
         <v>1344</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A49" s="112"/>
+      <c r="A49" s="94"/>
       <c r="B49" s="16" t="s">
         <v>1311</v>
       </c>
@@ -8135,8 +8152,8 @@
       <c r="E49" s="6" t="s">
         <v>1312</v>
       </c>
-      <c r="F49" s="95"/>
-      <c r="G49" s="95"/>
+      <c r="F49" s="99"/>
+      <c r="G49" s="99"/>
     </row>
     <row r="50" spans="1:7" ht="15" x14ac:dyDescent="0.5">
       <c r="A50" s="22">
@@ -8424,52 +8441,52 @@
       <c r="G62" s="41"/>
     </row>
     <row r="63" spans="1:7" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A63" s="91" t="s">
+      <c r="A63" s="100" t="s">
         <v>1337</v>
       </c>
-      <c r="B63" s="92"/>
-      <c r="C63" s="92"/>
-      <c r="D63" s="92"/>
-      <c r="E63" s="92"/>
-      <c r="F63" s="92"/>
-      <c r="G63" s="93"/>
+      <c r="B63" s="101"/>
+      <c r="C63" s="101"/>
+      <c r="D63" s="101"/>
+      <c r="E63" s="101"/>
+      <c r="F63" s="101"/>
+      <c r="G63" s="102"/>
     </row>
     <row r="64" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A64" s="67"/>
       <c r="G64" s="68"/>
     </row>
     <row r="65" spans="1:7" ht="28.15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A65" s="101" t="s">
+      <c r="A65" s="95" t="s">
         <v>1316</v>
       </c>
-      <c r="B65" s="102"/>
-      <c r="C65" s="102"/>
-      <c r="D65" s="102"/>
-      <c r="E65" s="102"/>
-      <c r="F65" s="102"/>
-      <c r="G65" s="103"/>
+      <c r="B65" s="96"/>
+      <c r="C65" s="96"/>
+      <c r="D65" s="96"/>
+      <c r="E65" s="96"/>
+      <c r="F65" s="96"/>
+      <c r="G65" s="97"/>
     </row>
     <row r="66" spans="1:7" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A66" s="112" t="s">
+      <c r="A66" s="94" t="s">
         <v>1317</v>
       </c>
-      <c r="B66" s="117" t="s">
+      <c r="B66" s="111" t="s">
         <v>1309</v>
       </c>
-      <c r="C66" s="118"/>
-      <c r="D66" s="117" t="s">
+      <c r="C66" s="112"/>
+      <c r="D66" s="111" t="s">
         <v>1310</v>
       </c>
-      <c r="E66" s="118"/>
-      <c r="F66" s="116" t="s">
+      <c r="E66" s="112"/>
+      <c r="F66" s="107" t="s">
         <v>1339</v>
       </c>
-      <c r="G66" s="94" t="s">
+      <c r="G66" s="98" t="s">
         <v>1344</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A67" s="112"/>
+      <c r="A67" s="94"/>
       <c r="B67" s="5" t="s">
         <v>1311</v>
       </c>
@@ -8482,8 +8499,8 @@
       <c r="E67" s="6" t="s">
         <v>1312</v>
       </c>
-      <c r="F67" s="95"/>
-      <c r="G67" s="95"/>
+      <c r="F67" s="99"/>
+      <c r="G67" s="99"/>
     </row>
     <row r="68" spans="1:7" ht="15" x14ac:dyDescent="0.5">
       <c r="A68" s="22">
@@ -8724,18 +8741,31 @@
       <c r="G78" s="46"/>
     </row>
     <row r="79" spans="1:7" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A79" s="91" t="s">
+      <c r="A79" s="100" t="s">
         <v>1338</v>
       </c>
-      <c r="B79" s="92"/>
-      <c r="C79" s="92"/>
-      <c r="D79" s="92"/>
-      <c r="E79" s="92"/>
-      <c r="F79" s="92"/>
-      <c r="G79" s="93"/>
+      <c r="B79" s="101"/>
+      <c r="C79" s="101"/>
+      <c r="D79" s="101"/>
+      <c r="E79" s="101"/>
+      <c r="F79" s="101"/>
+      <c r="G79" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A66:A67"/>
     <mergeCell ref="A65:G65"/>
@@ -8752,19 +8782,6 @@
     <mergeCell ref="D48:E48"/>
     <mergeCell ref="B66:C66"/>
     <mergeCell ref="D66:E66"/>
-    <mergeCell ref="A24:G24"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A26:G26"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8793,48 +8810,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="91" t="s">
         <v>1360</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="111"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="93"/>
     </row>
     <row r="2" spans="1:7" ht="28.15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="128" t="s">
         <v>1393</v>
       </c>
-      <c r="B2" s="120"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="121"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="130"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A3" s="104" t="s">
+      <c r="A3" s="117" t="s">
         <v>1317</v>
       </c>
-      <c r="B3" s="122" t="s">
+      <c r="B3" s="131" t="s">
         <v>1309</v>
       </c>
-      <c r="C3" s="122"/>
-      <c r="D3" s="122" t="s">
+      <c r="C3" s="131"/>
+      <c r="D3" s="131" t="s">
         <v>1310</v>
       </c>
-      <c r="E3" s="122"/>
-      <c r="F3" s="122" t="s">
+      <c r="E3" s="131"/>
+      <c r="F3" s="131" t="s">
         <v>1339</v>
       </c>
-      <c r="G3" s="124" t="s">
+      <c r="G3" s="132" t="s">
         <v>1344</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A4" s="105"/>
+      <c r="A4" s="118"/>
       <c r="B4" s="78" t="s">
         <v>1311</v>
       </c>
@@ -8847,8 +8864,8 @@
       <c r="E4" s="78" t="s">
         <v>1312</v>
       </c>
-      <c r="F4" s="123"/>
-      <c r="G4" s="125"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="133"/>
     </row>
     <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A5" s="74">
@@ -9236,15 +9253,15 @@
       <c r="G23" s="77"/>
     </row>
     <row r="24" spans="1:7" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="91" t="s">
+      <c r="A24" s="100" t="s">
         <v>1392</v>
       </c>
-      <c r="B24" s="92"/>
-      <c r="C24" s="92"/>
-      <c r="D24" s="92"/>
-      <c r="E24" s="92"/>
-      <c r="F24" s="92"/>
-      <c r="G24" s="93"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="102"/>
     </row>
     <row r="25" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="3"/>
@@ -9255,37 +9272,37 @@
       <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A26" s="126" t="s">
+      <c r="A26" s="122" t="s">
         <v>1394</v>
       </c>
-      <c r="B26" s="127"/>
-      <c r="C26" s="127"/>
-      <c r="D26" s="127"/>
-      <c r="E26" s="127"/>
-      <c r="F26" s="127"/>
-      <c r="G26" s="128"/>
+      <c r="B26" s="123"/>
+      <c r="C26" s="123"/>
+      <c r="D26" s="123"/>
+      <c r="E26" s="123"/>
+      <c r="F26" s="123"/>
+      <c r="G26" s="124"/>
     </row>
     <row r="27" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="129" t="s">
+      <c r="A27" s="126" t="s">
         <v>1317</v>
       </c>
-      <c r="B27" s="123" t="s">
+      <c r="B27" s="125" t="s">
         <v>1309</v>
       </c>
-      <c r="C27" s="123"/>
-      <c r="D27" s="123" t="s">
+      <c r="C27" s="125"/>
+      <c r="D27" s="125" t="s">
         <v>1310</v>
       </c>
-      <c r="E27" s="123"/>
-      <c r="F27" s="123" t="s">
+      <c r="E27" s="125"/>
+      <c r="F27" s="125" t="s">
         <v>1339</v>
       </c>
-      <c r="G27" s="130" t="s">
+      <c r="G27" s="127" t="s">
         <v>1344</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A28" s="129"/>
+      <c r="A28" s="126"/>
       <c r="B28" s="78" t="s">
         <v>1311</v>
       </c>
@@ -9298,8 +9315,8 @@
       <c r="E28" s="78" t="s">
         <v>1312</v>
       </c>
-      <c r="F28" s="123"/>
-      <c r="G28" s="130"/>
+      <c r="F28" s="125"/>
+      <c r="G28" s="127"/>
     </row>
     <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.5">
       <c r="A29" s="88"/>
@@ -9594,49 +9611,49 @@
       <c r="G42" s="89"/>
     </row>
     <row r="43" spans="1:7" ht="70.900000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="131" t="s">
+      <c r="A43" s="119" t="s">
         <v>1392</v>
       </c>
-      <c r="B43" s="132"/>
-      <c r="C43" s="132"/>
-      <c r="D43" s="132"/>
-      <c r="E43" s="132"/>
-      <c r="F43" s="132"/>
-      <c r="G43" s="133"/>
+      <c r="B43" s="120"/>
+      <c r="C43" s="120"/>
+      <c r="D43" s="120"/>
+      <c r="E43" s="120"/>
+      <c r="F43" s="120"/>
+      <c r="G43" s="121"/>
     </row>
     <row r="44" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="45" spans="1:7" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A45" s="126" t="s">
+      <c r="A45" s="122" t="s">
         <v>1410</v>
       </c>
-      <c r="B45" s="127"/>
-      <c r="C45" s="127"/>
-      <c r="D45" s="127"/>
-      <c r="E45" s="127"/>
-      <c r="F45" s="127"/>
-      <c r="G45" s="128"/>
+      <c r="B45" s="123"/>
+      <c r="C45" s="123"/>
+      <c r="D45" s="123"/>
+      <c r="E45" s="123"/>
+      <c r="F45" s="123"/>
+      <c r="G45" s="124"/>
     </row>
     <row r="46" spans="1:7" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A46" s="123" t="s">
+      <c r="A46" s="125" t="s">
         <v>1317</v>
       </c>
-      <c r="B46" s="123" t="s">
+      <c r="B46" s="125" t="s">
         <v>1309</v>
       </c>
-      <c r="C46" s="123"/>
-      <c r="D46" s="123" t="s">
+      <c r="C46" s="125"/>
+      <c r="D46" s="125" t="s">
         <v>1310</v>
       </c>
-      <c r="E46" s="123"/>
-      <c r="F46" s="123" t="s">
+      <c r="E46" s="125"/>
+      <c r="F46" s="125" t="s">
         <v>1339</v>
       </c>
-      <c r="G46" s="123" t="s">
+      <c r="G46" s="125" t="s">
         <v>1344</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A47" s="123"/>
+      <c r="A47" s="125"/>
       <c r="B47" s="78" t="s">
         <v>1311</v>
       </c>
@@ -9649,8 +9666,8 @@
       <c r="E47" s="78" t="s">
         <v>1312</v>
       </c>
-      <c r="F47" s="123"/>
-      <c r="G47" s="123"/>
+      <c r="F47" s="125"/>
+      <c r="G47" s="125"/>
     </row>
     <row r="48" spans="1:7" ht="15" x14ac:dyDescent="0.5">
       <c r="A48" s="84">
@@ -10014,49 +10031,49 @@
       <c r="G64" s="85"/>
     </row>
     <row r="65" spans="1:7" ht="65.650000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A65" s="131" t="s">
+      <c r="A65" s="119" t="s">
         <v>1392</v>
       </c>
-      <c r="B65" s="132"/>
-      <c r="C65" s="132"/>
-      <c r="D65" s="132"/>
-      <c r="E65" s="132"/>
-      <c r="F65" s="132"/>
-      <c r="G65" s="133"/>
+      <c r="B65" s="120"/>
+      <c r="C65" s="120"/>
+      <c r="D65" s="120"/>
+      <c r="E65" s="120"/>
+      <c r="F65" s="120"/>
+      <c r="G65" s="121"/>
     </row>
     <row r="66" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="67" spans="1:7" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A67" s="126" t="s">
+      <c r="A67" s="122" t="s">
         <v>1452</v>
       </c>
-      <c r="B67" s="127"/>
-      <c r="C67" s="127"/>
-      <c r="D67" s="127"/>
-      <c r="E67" s="127"/>
-      <c r="F67" s="127"/>
-      <c r="G67" s="128"/>
+      <c r="B67" s="123"/>
+      <c r="C67" s="123"/>
+      <c r="D67" s="123"/>
+      <c r="E67" s="123"/>
+      <c r="F67" s="123"/>
+      <c r="G67" s="124"/>
     </row>
     <row r="68" spans="1:7" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A68" s="123" t="s">
+      <c r="A68" s="125" t="s">
         <v>1317</v>
       </c>
-      <c r="B68" s="123" t="s">
+      <c r="B68" s="125" t="s">
         <v>1309</v>
       </c>
-      <c r="C68" s="123"/>
-      <c r="D68" s="123" t="s">
+      <c r="C68" s="125"/>
+      <c r="D68" s="125" t="s">
         <v>1310</v>
       </c>
-      <c r="E68" s="123"/>
-      <c r="F68" s="123" t="s">
+      <c r="E68" s="125"/>
+      <c r="F68" s="125" t="s">
         <v>1339</v>
       </c>
-      <c r="G68" s="123" t="s">
+      <c r="G68" s="125" t="s">
         <v>1344</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A69" s="123"/>
+      <c r="A69" s="125"/>
       <c r="B69" s="78" t="s">
         <v>1311</v>
       </c>
@@ -10069,8 +10086,8 @@
       <c r="E69" s="78" t="s">
         <v>1312</v>
       </c>
-      <c r="F69" s="123"/>
-      <c r="G69" s="123"/>
+      <c r="F69" s="125"/>
+      <c r="G69" s="125"/>
     </row>
     <row r="70" spans="1:7" ht="15" x14ac:dyDescent="0.5">
       <c r="A70" s="84">
@@ -10433,49 +10450,49 @@
       </c>
     </row>
     <row r="88" spans="1:7" ht="73.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A88" s="131" t="s">
+      <c r="A88" s="119" t="s">
         <v>1482</v>
       </c>
-      <c r="B88" s="132"/>
-      <c r="C88" s="132"/>
-      <c r="D88" s="132"/>
-      <c r="E88" s="132"/>
-      <c r="F88" s="132"/>
-      <c r="G88" s="133"/>
+      <c r="B88" s="120"/>
+      <c r="C88" s="120"/>
+      <c r="D88" s="120"/>
+      <c r="E88" s="120"/>
+      <c r="F88" s="120"/>
+      <c r="G88" s="121"/>
     </row>
     <row r="89" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="90" spans="1:7" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A90" s="126" t="s">
+      <c r="A90" s="122" t="s">
         <v>1483</v>
       </c>
-      <c r="B90" s="127"/>
-      <c r="C90" s="127"/>
-      <c r="D90" s="127"/>
-      <c r="E90" s="127"/>
-      <c r="F90" s="127"/>
-      <c r="G90" s="128"/>
+      <c r="B90" s="123"/>
+      <c r="C90" s="123"/>
+      <c r="D90" s="123"/>
+      <c r="E90" s="123"/>
+      <c r="F90" s="123"/>
+      <c r="G90" s="124"/>
     </row>
     <row r="91" spans="1:7" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A91" s="123" t="s">
+      <c r="A91" s="125" t="s">
         <v>1317</v>
       </c>
-      <c r="B91" s="123" t="s">
+      <c r="B91" s="125" t="s">
         <v>1309</v>
       </c>
-      <c r="C91" s="123"/>
-      <c r="D91" s="123" t="s">
+      <c r="C91" s="125"/>
+      <c r="D91" s="125" t="s">
         <v>1310</v>
       </c>
-      <c r="E91" s="123"/>
-      <c r="F91" s="123" t="s">
+      <c r="E91" s="125"/>
+      <c r="F91" s="125" t="s">
         <v>1339</v>
       </c>
-      <c r="G91" s="123" t="s">
+      <c r="G91" s="125" t="s">
         <v>1344</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A92" s="123"/>
+      <c r="A92" s="125"/>
       <c r="B92" s="78" t="s">
         <v>1311</v>
       </c>
@@ -10488,8 +10505,8 @@
       <c r="E92" s="78" t="s">
         <v>1312</v>
       </c>
-      <c r="F92" s="123"/>
-      <c r="G92" s="123"/>
+      <c r="F92" s="125"/>
+      <c r="G92" s="125"/>
     </row>
     <row r="93" spans="1:7" ht="15" x14ac:dyDescent="0.5">
       <c r="A93" s="84">
@@ -10745,18 +10762,46 @@
       <c r="G109" s="85"/>
     </row>
     <row r="113" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A113" s="131" t="s">
+      <c r="A113" s="119" t="s">
         <v>1482</v>
       </c>
-      <c r="B113" s="132"/>
-      <c r="C113" s="132"/>
-      <c r="D113" s="132"/>
-      <c r="E113" s="132"/>
-      <c r="F113" s="132"/>
-      <c r="G113" s="133"/>
+      <c r="B113" s="120"/>
+      <c r="C113" s="120"/>
+      <c r="D113" s="120"/>
+      <c r="E113" s="120"/>
+      <c r="F113" s="120"/>
+      <c r="G113" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="A65:G65"/>
+    <mergeCell ref="A67:G67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G68:G69"/>
     <mergeCell ref="A113:G113"/>
     <mergeCell ref="A88:G88"/>
     <mergeCell ref="A90:G90"/>
@@ -10765,34 +10810,6 @@
     <mergeCell ref="D91:E91"/>
     <mergeCell ref="F91:F92"/>
     <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A65:G65"/>
-    <mergeCell ref="A67:G67"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="A43:G43"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="A26:G26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="A24:G24"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11190,8 +11207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{294840C1-A247-4CC6-ABE2-780B18E3B924}">
   <dimension ref="A1:P334"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G337" sqref="G337"/>
+    <sheetView topLeftCell="A315" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C157" sqref="C157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -11212,7 +11229,7 @@
     <col min="16" max="16" width="10.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>1350</v>
       </c>
@@ -11262,7 +11279,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>197</v>
       </c>
@@ -11313,7 +11330,7 @@
         <v>46010</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>603</v>
       </c>
@@ -11364,7 +11381,7 @@
         <v>46016</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>622</v>
       </c>
@@ -11415,7 +11432,7 @@
         <v>46025</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>855</v>
       </c>
@@ -11466,7 +11483,7 @@
         <v>46033</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>928</v>
       </c>
@@ -11517,7 +11534,7 @@
         <v>46040</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>1001</v>
       </c>
@@ -11568,7 +11585,7 @@
         <v>46046</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>179</v>
       </c>
@@ -11619,7 +11636,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>222</v>
       </c>
@@ -11670,7 +11687,7 @@
         <v>46055</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>633</v>
       </c>
@@ -11721,7 +11738,7 @@
         <v>46067</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>636</v>
       </c>
@@ -11772,7 +11789,7 @@
         <v>46069</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>966</v>
       </c>
@@ -11823,7 +11840,7 @@
         <v>46080</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>934</v>
       </c>
@@ -11874,7 +11891,7 @@
         <v>46083</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>1043</v>
       </c>
@@ -11925,7 +11942,7 @@
         <v>46090</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>1126</v>
       </c>
@@ -11976,7 +11993,7 @@
         <v>46097</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>1197</v>
       </c>
@@ -12027,7 +12044,7 @@
         <v>46104</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>1255</v>
       </c>
@@ -12078,7 +12095,7 @@
         <v>46111</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>723</v>
       </c>
@@ -12129,7 +12146,7 @@
         <v>46015</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>615</v>
       </c>
@@ -12180,7 +12197,7 @@
         <v>46023</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>209</v>
       </c>
@@ -12231,7 +12248,7 @@
         <v>46030</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>727</v>
       </c>
@@ -12282,7 +12299,7 @@
         <v>46039</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>283</v>
       </c>
@@ -12333,7 +12350,7 @@
         <v>46049</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>611</v>
       </c>
@@ -12384,7 +12401,7 @@
         <v>46050</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>64</v>
       </c>
@@ -12435,7 +12452,7 @@
         <v>46058</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>772</v>
       </c>
@@ -12486,7 +12503,7 @@
         <v>46072</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>739</v>
       </c>
@@ -12537,7 +12554,7 @@
         <v>46072</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>861</v>
       </c>
@@ -12588,7 +12605,7 @@
         <v>46079</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>993</v>
       </c>
@@ -12639,7 +12656,7 @@
         <v>46086</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>1119</v>
       </c>
@@ -12690,7 +12707,7 @@
         <v>46093</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>1274</v>
       </c>
@@ -12741,7 +12758,7 @@
         <v>46101</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
         <v>1303</v>
       </c>
@@ -12792,7 +12809,7 @@
         <v>46114</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>627</v>
       </c>
@@ -12843,7 +12860,7 @@
         <v>46023</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
         <v>344</v>
       </c>
@@ -12894,7 +12911,7 @@
         <v>46028</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>234</v>
       </c>
@@ -12945,7 +12962,7 @@
         <v>46037</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
         <v>649</v>
       </c>
@@ -12996,7 +13013,7 @@
         <v>46045</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>74</v>
       </c>
@@ -13047,7 +13064,7 @@
         <v>46050</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
         <v>376</v>
       </c>
@@ -13098,7 +13115,7 @@
         <v>46056</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>732</v>
       </c>
@@ -13149,7 +13166,7 @@
         <v>46067</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
         <v>937</v>
       </c>
@@ -13200,7 +13217,7 @@
         <v>46073</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
         <v>808</v>
       </c>
@@ -13251,7 +13268,7 @@
         <v>46077</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
         <v>940</v>
       </c>
@@ -13302,7 +13319,7 @@
         <v>46084</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
         <v>1089</v>
       </c>
@@ -13353,7 +13370,7 @@
         <v>46092</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
         <v>1154</v>
       </c>
@@ -13404,7 +13421,7 @@
         <v>46098</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
         <v>1205</v>
       </c>
@@ -13455,7 +13472,7 @@
         <v>46105</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
         <v>1263</v>
       </c>
@@ -13506,7 +13523,7 @@
         <v>46112</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
         <v>534</v>
       </c>
@@ -13557,7 +13574,7 @@
         <v>46012</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
         <v>501</v>
       </c>
@@ -13608,7 +13625,7 @@
         <v>46014</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
         <v>751</v>
       </c>
@@ -13659,7 +13676,7 @@
         <v>46021</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
         <v>889</v>
       </c>
@@ -13710,7 +13727,7 @@
         <v>46034</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
         <v>1005</v>
       </c>
@@ -13761,7 +13778,7 @@
         <v>46039</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
         <v>487</v>
       </c>
@@ -13812,7 +13829,7 @@
         <v>46046</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
         <v>431</v>
       </c>
@@ -13863,7 +13880,7 @@
         <v>46051</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
         <v>543</v>
       </c>
@@ -13914,7 +13931,7 @@
         <v>46057</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
         <v>593</v>
       </c>
@@ -13965,7 +13982,7 @@
         <v>46066</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
         <v>845</v>
       </c>
@@ -14016,7 +14033,7 @@
         <v>46071</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
         <v>798</v>
       </c>
@@ -14067,7 +14084,7 @@
         <v>46076</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
         <v>1062</v>
       </c>
@@ -14118,7 +14135,7 @@
         <v>46088</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A58" s="1" t="s">
         <v>1198</v>
       </c>
@@ -14169,7 +14186,7 @@
         <v>46092</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A59" s="1" t="s">
         <v>1162</v>
       </c>
@@ -14220,7 +14237,7 @@
         <v>46099</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A60" s="1" t="s">
         <v>1222</v>
       </c>
@@ -14271,7 +14288,7 @@
         <v>46106</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A61" s="1" t="s">
         <v>1291</v>
       </c>
@@ -14322,7 +14339,7 @@
         <v>46113</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="s">
         <v>670</v>
       </c>
@@ -14373,7 +14390,7 @@
         <v>45994</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
         <v>249</v>
       </c>
@@ -14424,7 +14441,7 @@
         <v>46003</v>
       </c>
     </row>
-    <row r="64" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
         <v>437</v>
       </c>
@@ -14475,7 +14492,7 @@
         <v>46008</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
         <v>96</v>
       </c>
@@ -14526,7 +14543,7 @@
         <v>46017</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
         <v>744</v>
       </c>
@@ -14577,7 +14594,7 @@
         <v>46027</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A67" s="1" t="s">
         <v>795</v>
       </c>
@@ -14628,7 +14645,7 @@
         <v>46028</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A68" s="1" t="s">
         <v>924</v>
       </c>
@@ -14679,7 +14696,7 @@
         <v>46039</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A69" s="1" t="s">
         <v>988</v>
       </c>
@@ -14730,7 +14747,7 @@
         <v>46045</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
         <v>363</v>
       </c>
@@ -14781,7 +14798,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
         <v>339</v>
       </c>
@@ -14832,7 +14849,7 @@
         <v>46062</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="s">
         <v>445</v>
       </c>
@@ -14883,7 +14900,7 @@
         <v>46064</v>
       </c>
     </row>
-    <row r="73" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A73" s="1" t="s">
         <v>813</v>
       </c>
@@ -14934,7 +14951,7 @@
         <v>46073</v>
       </c>
     </row>
-    <row r="74" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A74" s="1" t="s">
         <v>851</v>
       </c>
@@ -14985,7 +15002,7 @@
         <v>46078</v>
       </c>
     </row>
-    <row r="75" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
         <v>1031</v>
       </c>
@@ -15036,7 +15053,7 @@
         <v>46090</v>
       </c>
     </row>
-    <row r="76" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A76" s="1" t="s">
         <v>1035</v>
       </c>
@@ -15087,7 +15104,7 @@
         <v>46090</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
         <v>1128</v>
       </c>
@@ -15138,7 +15155,7 @@
         <v>46097</v>
       </c>
     </row>
-    <row r="78" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A78" s="1" t="s">
         <v>1191</v>
       </c>
@@ -15189,7 +15206,7 @@
         <v>46104</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A79" s="1" t="s">
         <v>1254</v>
       </c>
@@ -15240,7 +15257,7 @@
         <v>46111</v>
       </c>
     </row>
-    <row r="80" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
         <v>470</v>
       </c>
@@ -15291,7 +15308,7 @@
         <v>46026</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A81" s="1" t="s">
         <v>702</v>
       </c>
@@ -15342,7 +15359,7 @@
         <v>46038</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
         <v>313</v>
       </c>
@@ -15393,7 +15410,7 @@
         <v>46051</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A83" s="1" t="s">
         <v>410</v>
       </c>
@@ -15444,7 +15461,7 @@
         <v>46054</v>
       </c>
     </row>
-    <row r="84" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A84" s="1" t="s">
         <v>558</v>
       </c>
@@ -15495,7 +15512,7 @@
         <v>46061</v>
       </c>
     </row>
-    <row r="85" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A85" s="1" t="s">
         <v>319</v>
       </c>
@@ -15546,7 +15563,7 @@
         <v>46064</v>
       </c>
     </row>
-    <row r="86" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A86" s="1" t="s">
         <v>662</v>
       </c>
@@ -15597,7 +15614,7 @@
         <v>46070</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A87" s="1" t="s">
         <v>791</v>
       </c>
@@ -15648,7 +15665,7 @@
         <v>46076</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A88" s="1" t="s">
         <v>956</v>
       </c>
@@ -15699,7 +15716,7 @@
         <v>46082</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A89" s="1" t="s">
         <v>1072</v>
       </c>
@@ -15750,7 +15767,7 @@
         <v>46091</v>
       </c>
     </row>
-    <row r="90" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A90" s="1" t="s">
         <v>1227</v>
       </c>
@@ -15801,7 +15818,7 @@
         <v>46098</v>
       </c>
     </row>
-    <row r="91" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A91" s="1" t="s">
         <v>1257</v>
       </c>
@@ -15852,7 +15869,7 @@
         <v>46104</v>
       </c>
     </row>
-    <row r="92" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A92" s="1" t="s">
         <v>1247</v>
       </c>
@@ -15903,7 +15920,7 @@
         <v>46111</v>
       </c>
     </row>
-    <row r="93" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A93" s="1" t="s">
         <v>676</v>
       </c>
@@ -15954,7 +15971,7 @@
         <v>46058</v>
       </c>
     </row>
-    <row r="94" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A94" s="1" t="s">
         <v>358</v>
       </c>
@@ -16005,7 +16022,7 @@
         <v>46064</v>
       </c>
     </row>
-    <row r="95" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A95" s="1" t="s">
         <v>879</v>
       </c>
@@ -16056,7 +16073,7 @@
         <v>46071</v>
       </c>
     </row>
-    <row r="96" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A96" s="1" t="s">
         <v>905</v>
       </c>
@@ -16107,7 +16124,7 @@
         <v>46075</v>
       </c>
     </row>
-    <row r="97" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A97" s="1" t="s">
         <v>983</v>
       </c>
@@ -16158,7 +16175,7 @@
         <v>46085</v>
       </c>
     </row>
-    <row r="98" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A98" s="1" t="s">
         <v>1133</v>
       </c>
@@ -16209,7 +16226,7 @@
         <v>46089</v>
       </c>
     </row>
-    <row r="99" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A99" s="1" t="s">
         <v>1186</v>
       </c>
@@ -16260,7 +16277,7 @@
         <v>46096</v>
       </c>
     </row>
-    <row r="100" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A100" s="1" t="s">
         <v>1252</v>
       </c>
@@ -16311,7 +16328,7 @@
         <v>46103</v>
       </c>
     </row>
-    <row r="101" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A101" s="1" t="s">
         <v>289</v>
       </c>
@@ -16362,7 +16379,7 @@
         <v>45997</v>
       </c>
     </row>
-    <row r="102" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A102" s="1" t="s">
         <v>326</v>
       </c>
@@ -16413,7 +16430,7 @@
         <v>46006</v>
       </c>
     </row>
-    <row r="103" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A103" s="1" t="s">
         <v>440</v>
       </c>
@@ -16464,7 +16481,7 @@
         <v>46012</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A104" s="1" t="s">
         <v>821</v>
       </c>
@@ -16515,7 +16532,7 @@
         <v>46020</v>
       </c>
     </row>
-    <row r="105" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A105" s="1" t="s">
         <v>787</v>
       </c>
@@ -16566,7 +16583,7 @@
         <v>46026</v>
       </c>
     </row>
-    <row r="106" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A106" s="1" t="s">
         <v>450</v>
       </c>
@@ -16617,7 +16634,7 @@
         <v>46034</v>
       </c>
     </row>
-    <row r="107" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A107" s="1" t="s">
         <v>667</v>
       </c>
@@ -16668,7 +16685,7 @@
         <v>46042</v>
       </c>
     </row>
-    <row r="108" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A108" s="1" t="s">
         <v>477</v>
       </c>
@@ -16719,7 +16736,7 @@
         <v>46051</v>
       </c>
     </row>
-    <row r="109" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A109" s="1" t="s">
         <v>579</v>
       </c>
@@ -16770,7 +16787,7 @@
         <v>46055</v>
       </c>
     </row>
-    <row r="110" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A110" s="1" t="s">
         <v>393</v>
       </c>
@@ -16821,7 +16838,7 @@
         <v>46060</v>
       </c>
     </row>
-    <row r="111" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A111" s="1" t="s">
         <v>681</v>
       </c>
@@ -16872,7 +16889,7 @@
         <v>46070</v>
       </c>
     </row>
-    <row r="112" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A112" s="1" t="s">
         <v>894</v>
       </c>
@@ -16923,7 +16940,7 @@
         <v>46080</v>
       </c>
     </row>
-    <row r="113" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A113" s="1" t="s">
         <v>1052</v>
       </c>
@@ -16974,7 +16991,7 @@
         <v>46082</v>
       </c>
     </row>
-    <row r="114" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A114" s="1" t="s">
         <v>1092</v>
       </c>
@@ -17025,7 +17042,7 @@
         <v>46089</v>
       </c>
     </row>
-    <row r="115" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A115" s="1" t="s">
         <v>1169</v>
       </c>
@@ -17076,7 +17093,7 @@
         <v>46096</v>
       </c>
     </row>
-    <row r="116" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A116" s="1" t="s">
         <v>1217</v>
       </c>
@@ -17127,7 +17144,7 @@
         <v>46103</v>
       </c>
     </row>
-    <row r="117" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A117" s="1" t="s">
         <v>1286</v>
       </c>
@@ -17178,7 +17195,7 @@
         <v>46110</v>
       </c>
     </row>
-    <row r="118" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A118" s="1" t="s">
         <v>264</v>
       </c>
@@ -17229,7 +17246,7 @@
         <v>46002</v>
       </c>
     </row>
-    <row r="119" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A119" s="1" t="s">
         <v>459</v>
       </c>
@@ -17280,7 +17297,7 @@
         <v>46008</v>
       </c>
     </row>
-    <row r="120" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A120" s="1" t="s">
         <v>335</v>
       </c>
@@ -17331,7 +17348,7 @@
         <v>46015</v>
       </c>
     </row>
-    <row r="121" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A121" s="1" t="s">
         <v>713</v>
       </c>
@@ -17382,7 +17399,7 @@
         <v>46021</v>
       </c>
     </row>
-    <row r="122" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A122" s="1" t="s">
         <v>973</v>
       </c>
@@ -17433,7 +17450,7 @@
         <v>46029</v>
       </c>
     </row>
-    <row r="123" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A123" s="1" t="s">
         <v>981</v>
       </c>
@@ -17484,7 +17501,7 @@
         <v>46038</v>
       </c>
     </row>
-    <row r="124" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A124" s="1" t="s">
         <v>1098</v>
       </c>
@@ -17535,7 +17552,7 @@
         <v>46042</v>
       </c>
     </row>
-    <row r="125" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A125" s="1" t="s">
         <v>368</v>
       </c>
@@ -17586,7 +17603,7 @@
         <v>46049</v>
       </c>
     </row>
-    <row r="126" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A126" s="1" t="s">
         <v>529</v>
       </c>
@@ -17637,7 +17654,7 @@
         <v>46058</v>
       </c>
     </row>
-    <row r="127" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A127" s="1" t="s">
         <v>296</v>
       </c>
@@ -17688,7 +17705,7 @@
         <v>46064</v>
       </c>
     </row>
-    <row r="128" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A128" s="1" t="s">
         <v>691</v>
       </c>
@@ -17739,7 +17756,7 @@
         <v>46070</v>
       </c>
     </row>
-    <row r="129" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A129" s="1" t="s">
         <v>803</v>
       </c>
@@ -17790,7 +17807,7 @@
         <v>46077</v>
       </c>
     </row>
-    <row r="130" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A130" s="1" t="s">
         <v>943</v>
       </c>
@@ -17841,7 +17858,7 @@
         <v>46084</v>
       </c>
     </row>
-    <row r="131" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A131" s="1" t="s">
         <v>1068</v>
       </c>
@@ -17892,7 +17909,7 @@
         <v>46091</v>
       </c>
     </row>
-    <row r="132" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A132" s="1" t="s">
         <v>1194</v>
       </c>
@@ -17943,7 +17960,7 @@
         <v>46098</v>
       </c>
     </row>
-    <row r="133" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A133" s="1" t="s">
         <v>1202</v>
       </c>
@@ -17994,7 +18011,7 @@
         <v>46105</v>
       </c>
     </row>
-    <row r="134" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A134" s="1" t="s">
         <v>1266</v>
       </c>
@@ -18045,7 +18062,7 @@
         <v>46112</v>
       </c>
     </row>
-    <row r="135" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A135" s="1" t="s">
         <v>570</v>
       </c>
@@ -18096,7 +18113,7 @@
         <v>46000</v>
       </c>
     </row>
-    <row r="136" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A136" s="1" t="s">
         <v>202</v>
       </c>
@@ -18147,7 +18164,7 @@
         <v>46006</v>
       </c>
     </row>
-    <row r="137" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A137" s="1" t="s">
         <v>608</v>
       </c>
@@ -18198,7 +18215,7 @@
         <v>46016</v>
       </c>
     </row>
-    <row r="138" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A138" s="1" t="s">
         <v>832</v>
       </c>
@@ -18249,7 +18266,7 @@
         <v>46021</v>
       </c>
     </row>
-    <row r="139" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A139" s="1" t="s">
         <v>900</v>
       </c>
@@ -18300,7 +18317,7 @@
         <v>46027</v>
       </c>
     </row>
-    <row r="140" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A140" s="1" t="s">
         <v>1022</v>
       </c>
@@ -18351,7 +18368,7 @@
         <v>46033</v>
       </c>
     </row>
-    <row r="141" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A141" s="1" t="s">
         <v>1167</v>
       </c>
@@ -18402,7 +18419,7 @@
         <v>46040</v>
       </c>
     </row>
-    <row r="142" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A142" s="1" t="s">
         <v>124</v>
       </c>
@@ -18453,7 +18470,7 @@
         <v>46050</v>
       </c>
     </row>
-    <row r="143" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A143" s="1" t="s">
         <v>154</v>
       </c>
@@ -18504,7 +18521,7 @@
         <v>46055</v>
       </c>
     </row>
-    <row r="144" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A144" s="1" t="s">
         <v>405</v>
       </c>
@@ -18555,7 +18572,7 @@
         <v>46061</v>
       </c>
     </row>
-    <row r="145" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A145" s="1" t="s">
         <v>720</v>
       </c>
@@ -18606,7 +18623,7 @@
         <v>46068</v>
       </c>
     </row>
-    <row r="146" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A146" s="1" t="s">
         <v>837</v>
       </c>
@@ -18657,7 +18674,7 @@
         <v>46075</v>
       </c>
     </row>
-    <row r="147" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A147" s="1" t="s">
         <v>1025</v>
       </c>
@@ -18708,7 +18725,7 @@
         <v>46082</v>
       </c>
     </row>
-    <row r="148" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A148" s="1" t="s">
         <v>1106</v>
       </c>
@@ -18759,7 +18776,7 @@
         <v>46089</v>
       </c>
     </row>
-    <row r="149" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A149" s="1" t="s">
         <v>1182</v>
       </c>
@@ -18810,7 +18827,7 @@
         <v>46096</v>
       </c>
     </row>
-    <row r="150" spans="1:16" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A150" s="1" t="s">
         <v>1280</v>
       </c>
@@ -19779,7 +19796,7 @@
         <v>46109</v>
       </c>
     </row>
-    <row r="169" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A169" s="1" t="s">
         <v>170</v>
       </c>
@@ -19830,7 +19847,7 @@
         <v>45997</v>
       </c>
     </row>
-    <row r="170" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A170" s="1" t="s">
         <v>706</v>
       </c>
@@ -19881,7 +19898,7 @@
         <v>46011</v>
       </c>
     </row>
-    <row r="171" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A171" s="1" t="s">
         <v>420</v>
       </c>
@@ -19930,7 +19947,7 @@
         <v>46013</v>
       </c>
     </row>
-    <row r="172" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A172" s="1" t="s">
         <v>748</v>
       </c>
@@ -19981,7 +19998,7 @@
         <v>46016</v>
       </c>
     </row>
-    <row r="173" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A173" s="1" t="s">
         <v>866</v>
       </c>
@@ -20032,7 +20049,7 @@
         <v>46029</v>
       </c>
     </row>
-    <row r="174" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A174" s="1" t="s">
         <v>844</v>
       </c>
@@ -20081,7 +20098,7 @@
         <v>46032</v>
       </c>
     </row>
-    <row r="175" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A175" s="1" t="s">
         <v>230</v>
       </c>
@@ -20132,7 +20149,7 @@
         <v>46041</v>
       </c>
     </row>
-    <row r="176" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A176" s="1" t="s">
         <v>599</v>
       </c>
@@ -20183,7 +20200,7 @@
         <v>46050</v>
       </c>
     </row>
-    <row r="177" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A177" s="1" t="s">
         <v>397</v>
       </c>
@@ -20234,7 +20251,7 @@
         <v>46056</v>
       </c>
     </row>
-    <row r="178" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A178" s="1" t="s">
         <v>517</v>
       </c>
@@ -20285,7 +20302,7 @@
         <v>46062</v>
       </c>
     </row>
-    <row r="179" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A179" s="1" t="s">
         <v>425</v>
       </c>
@@ -20336,7 +20353,7 @@
         <v>46064</v>
       </c>
     </row>
-    <row r="180" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A180" s="1" t="s">
         <v>711</v>
       </c>
@@ -20387,7 +20404,7 @@
         <v>46071</v>
       </c>
     </row>
-    <row r="181" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A181" s="1" t="s">
         <v>952</v>
       </c>
@@ -20438,7 +20455,7 @@
         <v>46081</v>
       </c>
     </row>
-    <row r="182" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A182" s="1" t="s">
         <v>978</v>
       </c>
@@ -20489,7 +20506,7 @@
         <v>46085</v>
       </c>
     </row>
-    <row r="183" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A183" s="1" t="s">
         <v>1085</v>
       </c>
@@ -20540,7 +20557,7 @@
         <v>46092</v>
       </c>
     </row>
-    <row r="184" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A184" s="1" t="s">
         <v>1164</v>
       </c>
@@ -20591,7 +20608,7 @@
         <v>46099</v>
       </c>
     </row>
-    <row r="185" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A185" s="1" t="s">
         <v>1228</v>
       </c>
@@ -20642,7 +20659,7 @@
         <v>46106</v>
       </c>
     </row>
-    <row r="186" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A186" s="1" t="s">
         <v>1293</v>
       </c>
@@ -20693,7 +20710,7 @@
         <v>46113</v>
       </c>
     </row>
-    <row r="187" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A187" s="1" t="s">
         <v>225</v>
       </c>
@@ -20744,7 +20761,7 @@
         <v>46016</v>
       </c>
     </row>
-    <row r="188" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A188" s="1" t="s">
         <v>596</v>
       </c>
@@ -20795,7 +20812,7 @@
         <v>46023</v>
       </c>
     </row>
-    <row r="189" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A189" s="1" t="s">
         <v>824</v>
       </c>
@@ -20846,7 +20863,7 @@
         <v>46030</v>
       </c>
     </row>
-    <row r="190" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A190" s="1" t="s">
         <v>1037</v>
       </c>
@@ -20897,7 +20914,7 @@
         <v>46045</v>
       </c>
     </row>
-    <row r="191" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A191" s="1" t="s">
         <v>389</v>
       </c>
@@ -20948,7 +20965,7 @@
         <v>46051</v>
       </c>
     </row>
-    <row r="192" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A192" s="1" t="s">
         <v>106</v>
       </c>
@@ -20999,7 +21016,7 @@
         <v>46059</v>
       </c>
     </row>
-    <row r="193" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A193" s="1" t="s">
         <v>547</v>
       </c>
@@ -21050,7 +21067,7 @@
         <v>46065</v>
       </c>
     </row>
-    <row r="194" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A194" s="1" t="s">
         <v>735</v>
       </c>
@@ -21101,7 +21118,7 @@
         <v>46072</v>
       </c>
     </row>
-    <row r="195" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A195" s="1" t="s">
         <v>896</v>
       </c>
@@ -21152,7 +21169,7 @@
         <v>46080</v>
       </c>
     </row>
-    <row r="196" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A196" s="1" t="s">
         <v>1014</v>
       </c>
@@ -21203,7 +21220,7 @@
         <v>46086</v>
       </c>
     </row>
-    <row r="197" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A197" s="1" t="s">
         <v>998</v>
       </c>
@@ -21254,7 +21271,7 @@
         <v>46086</v>
       </c>
     </row>
-    <row r="198" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A198" s="1" t="s">
         <v>1120</v>
       </c>
@@ -21305,7 +21322,7 @@
         <v>46093</v>
       </c>
     </row>
-    <row r="199" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A199" s="1" t="s">
         <v>1180</v>
       </c>
@@ -21356,7 +21373,7 @@
         <v>46100</v>
       </c>
     </row>
-    <row r="200" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A200" s="1" t="s">
         <v>1238</v>
       </c>
@@ -21407,7 +21424,7 @@
         <v>46107</v>
       </c>
     </row>
-    <row r="201" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A201" s="1" t="s">
         <v>1305</v>
       </c>
@@ -21458,7 +21475,7 @@
         <v>46114</v>
       </c>
     </row>
-    <row r="202" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A202" s="1" t="s">
         <v>686</v>
       </c>
@@ -21509,7 +21526,7 @@
         <v>46050</v>
       </c>
     </row>
-    <row r="203" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A203" s="1" t="s">
         <v>801</v>
       </c>
@@ -21560,7 +21577,7 @@
         <v>46061</v>
       </c>
     </row>
-    <row r="204" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A204" s="1" t="s">
         <v>724</v>
       </c>
@@ -21611,7 +21628,7 @@
         <v>46071</v>
       </c>
     </row>
-    <row r="205" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A205" s="1" t="s">
         <v>819</v>
       </c>
@@ -21662,7 +21679,7 @@
         <v>46074</v>
       </c>
     </row>
-    <row r="206" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A206" s="1" t="s">
         <v>885</v>
       </c>
@@ -21713,7 +21730,7 @@
         <v>46079</v>
       </c>
     </row>
-    <row r="207" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A207" s="1" t="s">
         <v>975</v>
       </c>
@@ -21764,7 +21781,7 @@
         <v>46085</v>
       </c>
     </row>
-    <row r="208" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A208" s="1" t="s">
         <v>1082</v>
       </c>
@@ -21815,7 +21832,7 @@
         <v>46092</v>
       </c>
     </row>
-    <row r="209" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A209" s="1" t="s">
         <v>1262</v>
       </c>
@@ -21866,7 +21883,7 @@
         <v>46099</v>
       </c>
     </row>
-    <row r="210" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A210" s="1" t="s">
         <v>1215</v>
       </c>
@@ -21917,7 +21934,7 @@
         <v>46106</v>
       </c>
     </row>
-    <row r="211" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A211" s="1" t="s">
         <v>1271</v>
       </c>
@@ -21968,7 +21985,7 @@
         <v>46113</v>
       </c>
     </row>
-    <row r="212" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A212" s="1" t="s">
         <v>457</v>
       </c>
@@ -22019,7 +22036,7 @@
         <v>46047</v>
       </c>
     </row>
-    <row r="213" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A213" s="1" t="s">
         <v>1002</v>
       </c>
@@ -22070,7 +22087,7 @@
         <v>46075</v>
       </c>
     </row>
-    <row r="214" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A214" s="1" t="s">
         <v>1101</v>
       </c>
@@ -22121,7 +22138,7 @@
         <v>46082</v>
       </c>
     </row>
-    <row r="215" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A215" s="1" t="s">
         <v>1245</v>
       </c>
@@ -22172,7 +22189,7 @@
         <v>46096</v>
       </c>
     </row>
-    <row r="216" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A216" s="1" t="s">
         <v>1290</v>
       </c>
@@ -22223,7 +22240,7 @@
         <v>46103</v>
       </c>
     </row>
-    <row r="217" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A217" s="1" t="s">
         <v>244</v>
       </c>
@@ -22274,7 +22291,7 @@
         <v>46060</v>
       </c>
     </row>
-    <row r="218" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A218" s="1" t="s">
         <v>695</v>
       </c>
@@ -22325,7 +22342,7 @@
         <v>46067</v>
       </c>
     </row>
-    <row r="219" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A219" s="1" t="s">
         <v>829</v>
       </c>
@@ -22376,7 +22393,7 @@
         <v>46074</v>
       </c>
     </row>
-    <row r="220" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A220" s="1" t="s">
         <v>967</v>
       </c>
@@ -22427,7 +22444,7 @@
         <v>46081</v>
       </c>
     </row>
-    <row r="221" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A221" s="1" t="s">
         <v>1077</v>
       </c>
@@ -22478,7 +22495,7 @@
         <v>46088</v>
       </c>
     </row>
-    <row r="222" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A222" s="1" t="s">
         <v>1145</v>
       </c>
@@ -22529,7 +22546,7 @@
         <v>46095</v>
       </c>
     </row>
-    <row r="223" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A223" s="1" t="s">
         <v>1214</v>
       </c>
@@ -22580,7 +22597,7 @@
         <v>46102</v>
       </c>
     </row>
-    <row r="224" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A224" s="1" t="s">
         <v>1269</v>
       </c>
@@ -22631,7 +22648,7 @@
         <v>46109</v>
       </c>
     </row>
-    <row r="225" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A225" s="1" t="s">
         <v>383</v>
       </c>
@@ -22682,7 +22699,7 @@
         <v>46010</v>
       </c>
     </row>
-    <row r="226" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A226" s="1" t="s">
         <v>655</v>
       </c>
@@ -22733,7 +22750,7 @@
         <v>46018</v>
       </c>
     </row>
-    <row r="227" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A227" s="1" t="s">
         <v>644</v>
       </c>
@@ -22784,7 +22801,7 @@
         <v>46024</v>
       </c>
     </row>
-    <row r="228" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A228" s="1" t="s">
         <v>786</v>
       </c>
@@ -22835,7 +22852,7 @@
         <v>46031</v>
       </c>
     </row>
-    <row r="229" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A229" s="1" t="s">
         <v>909</v>
       </c>
@@ -22886,7 +22903,7 @@
         <v>46039</v>
       </c>
     </row>
-    <row r="230" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A230" s="1" t="s">
         <v>1158</v>
       </c>
@@ -22937,7 +22954,7 @@
         <v>46046</v>
       </c>
     </row>
-    <row r="231" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A231" s="1" t="s">
         <v>574</v>
       </c>
@@ -22988,7 +23005,7 @@
         <v>46054</v>
       </c>
     </row>
-    <row r="232" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A232" s="1" t="s">
         <v>508</v>
       </c>
@@ -23039,7 +23056,7 @@
         <v>46061</v>
       </c>
     </row>
-    <row r="233" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A233" s="1" t="s">
         <v>881</v>
       </c>
@@ -23090,7 +23107,7 @@
         <v>46066</v>
       </c>
     </row>
-    <row r="234" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A234" s="1" t="s">
         <v>857</v>
       </c>
@@ -23141,7 +23158,7 @@
         <v>46073</v>
       </c>
     </row>
-    <row r="235" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A235" s="1" t="s">
         <v>902</v>
       </c>
@@ -23192,7 +23209,7 @@
         <v>46080</v>
       </c>
     </row>
-    <row r="236" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A236" s="1" t="s">
         <v>1103</v>
       </c>
@@ -23243,7 +23260,7 @@
         <v>46087</v>
       </c>
     </row>
-    <row r="237" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A237" s="1" t="s">
         <v>1242</v>
       </c>
@@ -23294,7 +23311,7 @@
         <v>46094</v>
       </c>
     </row>
-    <row r="238" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A238" s="1" t="s">
         <v>1231</v>
       </c>
@@ -23345,7 +23362,7 @@
         <v>46101</v>
       </c>
     </row>
-    <row r="239" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A239" s="1" t="s">
         <v>1283</v>
       </c>
@@ -23396,7 +23413,7 @@
         <v>46108</v>
       </c>
     </row>
-    <row r="240" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A240" s="1" t="s">
         <v>474</v>
       </c>
@@ -23447,7 +23464,7 @@
         <v>46008</v>
       </c>
     </row>
-    <row r="241" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A241" s="1" t="s">
         <v>28</v>
       </c>
@@ -23498,7 +23515,7 @@
         <v>46015</v>
       </c>
     </row>
-    <row r="242" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A242" s="1" t="s">
         <v>521</v>
       </c>
@@ -23549,7 +23566,7 @@
         <v>46021</v>
       </c>
     </row>
-    <row r="243" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A243" s="1" t="s">
         <v>771</v>
       </c>
@@ -23600,7 +23617,7 @@
         <v>46029</v>
       </c>
     </row>
-    <row r="244" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A244" s="1" t="s">
         <v>869</v>
       </c>
@@ -23651,7 +23668,7 @@
         <v>46036</v>
       </c>
     </row>
-    <row r="245" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A245" s="1" t="s">
         <v>996</v>
       </c>
@@ -23702,7 +23719,7 @@
         <v>46045</v>
       </c>
     </row>
-    <row r="246" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A246" s="1" t="s">
         <v>1174</v>
       </c>
@@ -23753,7 +23770,7 @@
         <v>46050</v>
       </c>
     </row>
-    <row r="247" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A247" s="1" t="s">
         <v>1156</v>
       </c>
@@ -23804,7 +23821,7 @@
         <v>46056</v>
       </c>
     </row>
-    <row r="248" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A248" s="1" t="s">
         <v>130</v>
       </c>
@@ -23855,7 +23872,7 @@
         <v>46063</v>
       </c>
     </row>
-    <row r="249" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A249" s="1" t="s">
         <v>1221</v>
       </c>
@@ -23906,7 +23923,7 @@
         <v>46068</v>
       </c>
     </row>
-    <row r="250" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A250" s="1" t="s">
         <v>780</v>
       </c>
@@ -23957,7 +23974,7 @@
         <v>46076</v>
       </c>
     </row>
-    <row r="251" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A251" s="1" t="s">
         <v>913</v>
       </c>
@@ -24008,7 +24025,7 @@
         <v>46083</v>
       </c>
     </row>
-    <row r="252" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A252" s="1" t="s">
         <v>1051</v>
       </c>
@@ -24059,7 +24076,7 @@
         <v>46090</v>
       </c>
     </row>
-    <row r="253" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A253" s="1" t="s">
         <v>1131</v>
       </c>
@@ -24110,7 +24127,7 @@
         <v>46097</v>
       </c>
     </row>
-    <row r="254" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A254" s="1" t="s">
         <v>1199</v>
       </c>
@@ -24161,7 +24178,7 @@
         <v>46104</v>
       </c>
     </row>
-    <row r="255" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A255" s="1" t="s">
         <v>463</v>
       </c>
@@ -24212,7 +24229,7 @@
         <v>46010</v>
       </c>
     </row>
-    <row r="256" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A256" s="1" t="s">
         <v>148</v>
       </c>
@@ -24263,7 +24280,7 @@
         <v>46017</v>
       </c>
     </row>
-    <row r="257" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A257" s="1" t="s">
         <v>657</v>
       </c>
@@ -24314,7 +24331,7 @@
         <v>46023</v>
       </c>
     </row>
-    <row r="258" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A258" s="1" t="s">
         <v>834</v>
       </c>
@@ -24365,7 +24382,7 @@
         <v>46030</v>
       </c>
     </row>
-    <row r="259" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A259" s="1" t="s">
         <v>961</v>
       </c>
@@ -24416,7 +24433,7 @@
         <v>46037</v>
       </c>
     </row>
-    <row r="260" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A260" s="1" t="s">
         <v>1172</v>
       </c>
@@ -24467,7 +24484,7 @@
         <v>46043</v>
       </c>
     </row>
-    <row r="261" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A261" s="1" t="s">
         <v>401</v>
       </c>
@@ -24518,7 +24535,7 @@
         <v>46057</v>
       </c>
     </row>
-    <row r="262" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A262" s="1" t="s">
         <v>276</v>
       </c>
@@ -24569,7 +24586,7 @@
         <v>46061</v>
       </c>
     </row>
-    <row r="263" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A263" s="1" t="s">
         <v>496</v>
       </c>
@@ -24620,7 +24637,7 @@
         <v>46065</v>
       </c>
     </row>
-    <row r="264" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A264" s="1" t="s">
         <v>718</v>
       </c>
@@ -24671,7 +24688,7 @@
         <v>46071</v>
       </c>
     </row>
-    <row r="265" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A265" s="1" t="s">
         <v>856</v>
       </c>
@@ -24722,7 +24739,7 @@
         <v>46078</v>
       </c>
     </row>
-    <row r="266" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A266" s="1" t="s">
         <v>1011</v>
       </c>
@@ -24773,7 +24790,7 @@
         <v>46086</v>
       </c>
     </row>
-    <row r="267" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A267" s="1" t="s">
         <v>1139</v>
       </c>
@@ -24824,7 +24841,7 @@
         <v>46092</v>
       </c>
     </row>
-    <row r="268" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A268" s="1" t="s">
         <v>1179</v>
       </c>
@@ -24875,7 +24892,7 @@
         <v>46100</v>
       </c>
     </row>
-    <row r="269" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A269" s="1" t="s">
         <v>1225</v>
       </c>
@@ -24926,7 +24943,7 @@
         <v>46106</v>
       </c>
     </row>
-    <row r="270" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A270" s="1" t="s">
         <v>1278</v>
       </c>
@@ -24977,7 +24994,7 @@
         <v>46113</v>
       </c>
     </row>
-    <row r="271" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A271" s="1" t="s">
         <v>191</v>
       </c>
@@ -25028,7 +25045,7 @@
         <v>45994</v>
       </c>
     </row>
-    <row r="272" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A272" s="1" t="s">
         <v>255</v>
       </c>
@@ -25079,7 +25096,7 @@
         <v>46002</v>
       </c>
     </row>
-    <row r="273" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A273" s="1" t="s">
         <v>513</v>
       </c>
@@ -25130,7 +25147,7 @@
         <v>46005</v>
       </c>
     </row>
-    <row r="274" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A274" s="1" t="s">
         <v>50</v>
       </c>
@@ -25181,7 +25198,7 @@
         <v>46018</v>
       </c>
     </row>
-    <row r="275" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A275" s="1" t="s">
         <v>755</v>
       </c>
@@ -25232,7 +25249,7 @@
         <v>46018</v>
       </c>
     </row>
-    <row r="276" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A276" s="1" t="s">
         <v>1054</v>
       </c>
@@ -25283,7 +25300,7 @@
         <v>46035</v>
       </c>
     </row>
-    <row r="277" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A277" s="1" t="s">
         <v>948</v>
       </c>
@@ -25334,7 +25351,7 @@
         <v>46035</v>
       </c>
     </row>
-    <row r="278" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A278" s="1" t="s">
         <v>114</v>
       </c>
@@ -25385,7 +25402,7 @@
         <v>46039</v>
       </c>
     </row>
-    <row r="279" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A279" s="1" t="s">
         <v>141</v>
       </c>
@@ -25436,7 +25453,7 @@
         <v>46045</v>
       </c>
     </row>
-    <row r="280" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A280" s="1" t="s">
         <v>270</v>
       </c>
@@ -25487,7 +25504,7 @@
         <v>46059</v>
       </c>
     </row>
-    <row r="281" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A281" s="1" t="s">
         <v>482</v>
       </c>
@@ -25538,7 +25555,7 @@
         <v>46062</v>
       </c>
     </row>
-    <row r="282" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A282" s="1" t="s">
         <v>764</v>
       </c>
@@ -25589,7 +25606,7 @@
         <v>46068</v>
       </c>
     </row>
-    <row r="283" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A283" s="1" t="s">
         <v>816</v>
       </c>
@@ -25640,7 +25657,7 @@
         <v>46077</v>
       </c>
     </row>
-    <row r="284" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A284" s="1" t="s">
         <v>884</v>
       </c>
@@ -25691,7 +25708,7 @@
         <v>46079</v>
       </c>
     </row>
-    <row r="285" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A285" s="1" t="s">
         <v>1008</v>
       </c>
@@ -25742,7 +25759,7 @@
         <v>46086</v>
       </c>
     </row>
-    <row r="286" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A286" s="1" t="s">
         <v>1057</v>
       </c>
@@ -25793,7 +25810,7 @@
         <v>46091</v>
       </c>
     </row>
-    <row r="287" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A287" s="1" t="s">
         <v>1143</v>
       </c>
@@ -25844,7 +25861,7 @@
         <v>46098</v>
       </c>
     </row>
-    <row r="288" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A288" s="1" t="s">
         <v>1212</v>
       </c>
@@ -25895,7 +25912,7 @@
         <v>46105</v>
       </c>
     </row>
-    <row r="289" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A289" s="1" t="s">
         <v>1267</v>
       </c>
@@ -25946,7 +25963,7 @@
         <v>46112</v>
       </c>
     </row>
-    <row r="290" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A290" s="1" t="s">
         <v>493</v>
       </c>
@@ -25997,7 +26014,7 @@
         <v>46003</v>
       </c>
     </row>
-    <row r="291" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A291" s="1" t="s">
         <v>565</v>
       </c>
@@ -26048,7 +26065,7 @@
         <v>46014</v>
       </c>
     </row>
-    <row r="292" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A292" s="1" t="s">
         <v>783</v>
       </c>
@@ -26099,7 +26116,7 @@
         <v>46020</v>
       </c>
     </row>
-    <row r="293" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A293" s="1" t="s">
         <v>1136</v>
       </c>
@@ -26150,7 +26167,7 @@
         <v>46027</v>
       </c>
     </row>
-    <row r="294" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A294" s="1" t="s">
         <v>1047</v>
       </c>
@@ -26201,7 +26218,7 @@
         <v>46033</v>
       </c>
     </row>
-    <row r="295" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A295" s="1" t="s">
         <v>217</v>
       </c>
@@ -26252,7 +26269,7 @@
         <v>46036</v>
       </c>
     </row>
-    <row r="296" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A296" s="1" t="s">
         <v>372</v>
       </c>
@@ -26303,7 +26320,7 @@
         <v>46050</v>
       </c>
     </row>
-    <row r="297" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A297" s="1" t="s">
         <v>616</v>
       </c>
@@ -26354,7 +26371,7 @@
         <v>46056</v>
       </c>
     </row>
-    <row r="298" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A298" s="1" t="s">
         <v>583</v>
       </c>
@@ -26405,7 +26422,7 @@
         <v>46057</v>
       </c>
     </row>
-    <row r="299" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A299" s="1" t="s">
         <v>758</v>
       </c>
@@ -26456,7 +26473,7 @@
         <v>46068</v>
       </c>
     </row>
-    <row r="300" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A300" s="1" t="s">
         <v>828</v>
       </c>
@@ -26507,7 +26524,7 @@
         <v>46074</v>
       </c>
     </row>
-    <row r="301" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A301" s="1" t="s">
         <v>1065</v>
       </c>
@@ -26558,7 +26575,7 @@
         <v>46081</v>
       </c>
     </row>
-    <row r="302" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A302" s="1" t="s">
         <v>970</v>
       </c>
@@ -26609,7 +26626,7 @@
         <v>46084</v>
       </c>
     </row>
-    <row r="303" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A303" s="1" t="s">
         <v>1076</v>
       </c>
@@ -26660,7 +26677,7 @@
         <v>46091</v>
       </c>
     </row>
-    <row r="304" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A304" s="1" t="s">
         <v>1151</v>
       </c>
@@ -26711,7 +26728,7 @@
         <v>46098</v>
       </c>
     </row>
-    <row r="305" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A305" s="1" t="s">
         <v>1239</v>
       </c>
@@ -26762,7 +26779,7 @@
         <v>46107</v>
       </c>
     </row>
-    <row r="306" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A306" s="1" t="s">
         <v>1301</v>
       </c>
@@ -26813,7 +26830,7 @@
         <v>46114</v>
       </c>
     </row>
-    <row r="307" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A307" s="1" t="s">
         <v>42</v>
       </c>
@@ -26864,7 +26881,7 @@
         <v>46018</v>
       </c>
     </row>
-    <row r="308" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A308" s="1" t="s">
         <v>161</v>
       </c>
@@ -26915,7 +26932,7 @@
         <v>46029</v>
       </c>
     </row>
-    <row r="309" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A309" s="1" t="s">
         <v>292</v>
       </c>
@@ -26966,7 +26983,7 @@
         <v>46038</v>
       </c>
     </row>
-    <row r="310" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A310" s="1" t="s">
         <v>184</v>
       </c>
@@ -27015,7 +27032,7 @@
         <v>46043</v>
       </c>
     </row>
-    <row r="311" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A311" s="1" t="s">
         <v>330</v>
       </c>
@@ -27066,7 +27083,7 @@
         <v>46052</v>
       </c>
     </row>
-    <row r="312" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A312" s="1" t="s">
         <v>576</v>
       </c>
@@ -27115,7 +27132,7 @@
         <v>46059</v>
       </c>
     </row>
-    <row r="313" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A313" s="1" t="s">
         <v>135</v>
       </c>
@@ -27166,7 +27183,7 @@
         <v>46063</v>
       </c>
     </row>
-    <row r="314" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A314" s="1" t="s">
         <v>835</v>
       </c>
@@ -27217,7 +27234,7 @@
         <v>46073</v>
       </c>
     </row>
-    <row r="315" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A315" s="1" t="s">
         <v>984</v>
       </c>
@@ -27268,7 +27285,7 @@
         <v>46080</v>
       </c>
     </row>
-    <row r="316" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A316" s="1" t="s">
         <v>1079</v>
       </c>
@@ -27319,7 +27336,7 @@
         <v>46087</v>
       </c>
     </row>
-    <row r="317" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A317" s="1" t="s">
         <v>1095</v>
       </c>
@@ -27368,7 +27385,7 @@
         <v>46092</v>
       </c>
     </row>
-    <row r="318" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A318" s="1" t="s">
         <v>1188</v>
       </c>
@@ -27419,7 +27436,7 @@
         <v>46102</v>
       </c>
     </row>
-    <row r="319" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A319" s="1" t="s">
         <v>588</v>
       </c>
@@ -27470,7 +27487,7 @@
         <v>46006</v>
       </c>
     </row>
-    <row r="320" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A320" s="1" t="s">
         <v>652</v>
       </c>
@@ -27521,7 +27538,7 @@
         <v>46012</v>
       </c>
     </row>
-    <row r="321" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A321" s="1" t="s">
         <v>551</v>
       </c>
@@ -27572,7 +27589,7 @@
         <v>46020</v>
       </c>
     </row>
-    <row r="322" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A322" s="1" t="s">
         <v>760</v>
       </c>
@@ -27623,7 +27640,7 @@
         <v>46027</v>
       </c>
     </row>
-    <row r="323" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A323" s="1" t="s">
         <v>932</v>
       </c>
@@ -27674,7 +27691,7 @@
         <v>46034</v>
       </c>
     </row>
-    <row r="324" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A324" s="1" t="s">
         <v>305</v>
       </c>
@@ -27723,7 +27740,7 @@
         <v>46047</v>
       </c>
     </row>
-    <row r="325" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A325" s="1" t="s">
         <v>1113</v>
       </c>
@@ -27774,7 +27791,7 @@
         <v>46048</v>
       </c>
     </row>
-    <row r="326" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A326" s="1" t="s">
         <v>539</v>
       </c>
@@ -27825,7 +27842,7 @@
         <v>46054</v>
       </c>
     </row>
-    <row r="327" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A327" s="1" t="s">
         <v>505</v>
       </c>
@@ -27876,7 +27893,7 @@
         <v>46060</v>
       </c>
     </row>
-    <row r="328" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A328" s="1" t="s">
         <v>641</v>
       </c>
@@ -27927,7 +27944,7 @@
         <v>46069</v>
       </c>
     </row>
-    <row r="329" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A329" s="1" t="s">
         <v>871</v>
       </c>
@@ -27978,7 +27995,7 @@
         <v>46079</v>
       </c>
     </row>
-    <row r="330" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A330" s="1" t="s">
         <v>1019</v>
       </c>
@@ -28029,7 +28046,7 @@
         <v>46086</v>
       </c>
     </row>
-    <row r="331" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A331" s="1" t="s">
         <v>1111</v>
       </c>
@@ -28080,7 +28097,7 @@
         <v>46093</v>
       </c>
     </row>
-    <row r="332" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A332" s="1" t="s">
         <v>1177</v>
       </c>
@@ -28131,7 +28148,7 @@
         <v>46100</v>
       </c>
     </row>
-    <row r="333" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A333" s="1" t="s">
         <v>1234</v>
       </c>
@@ -28182,7 +28199,7 @@
         <v>46107</v>
       </c>
     </row>
-    <row r="334" spans="1:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A334" s="1" t="s">
         <v>1297</v>
       </c>
@@ -28241,4 +28258,136 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ED2D2BA-8F99-4EA9-9D40-A67CB8EFCB2D}">
+  <dimension ref="I3:I25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="3" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I3" t="str" cm="1">
+        <f t="array" ref="I3:I25">_xlfn.UNIQUE(表1[Carrier(ServiceCode)])</f>
+        <v>CMA(BEX) COSCO(AEM3) EMC(BEX) OOCL(EM1)</v>
+      </c>
+    </row>
+    <row r="4" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I4" t="str">
+        <v>CMA(BEX2) COSCO(AEM6) EMC(BEX2) OOCL(AAS)</v>
+      </c>
+    </row>
+    <row r="5" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I5" t="str">
+        <v>CMA(MEDEX) COSCO(MINA) OOCL(WM3)</v>
+      </c>
+    </row>
+    <row r="6" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I6" t="str">
+        <v>CMA(MEX) COSCO(AEM2) EMC(MEX1) OOCL(WM2)</v>
+      </c>
+    </row>
+    <row r="7" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I7" t="str">
+        <v>CMA(NEWMEX2S) COSCO(AEM1) EMC(MD2) OOCL(WM1)</v>
+      </c>
+    </row>
+    <row r="8" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I8" t="str">
+        <v>CUL(AM1) GFS(FMS)</v>
+      </c>
+    </row>
+    <row r="9" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I9" t="str">
+        <v>ESL(IEX) WHL(IM2)</v>
+      </c>
+    </row>
+    <row r="10" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I10" t="str">
+        <v>HMM(FIM) ONE(IOM)</v>
+      </c>
+    </row>
+    <row r="11" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I11" t="str">
+        <v>HMM(MD1) MSC(PANTHER) ONE(MD1) YML(MD1)</v>
+      </c>
+    </row>
+    <row r="12" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I12" t="str">
+        <v>HMM(MD2) MSC(LYNX) ONE(MD2) YML(MD2)</v>
+      </c>
+    </row>
+    <row r="13" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I13" t="str">
+        <v>HMM(MD3) MSC(TIGER) ONE(MD3) YML(MD3)</v>
+      </c>
+    </row>
+    <row r="14" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I14" t="str">
+        <v>HMM(MD4) MSC(DRAGON) ONE(MD4) YML(MD4)</v>
+      </c>
+    </row>
+    <row r="15" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I15" t="str">
+        <v>HPL(IMX) MSK(ME11)</v>
+      </c>
+    </row>
+    <row r="16" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I16" t="str">
+        <v>HPL(JD1) MSK(JD1)</v>
+      </c>
+    </row>
+    <row r="17" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I17" t="str">
+        <v>HPL(JD2) MSK(JD2)</v>
+      </c>
+    </row>
+    <row r="18" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I18" t="str">
+        <v>HPL(JD3) MSK(JD3)</v>
+      </c>
+    </row>
+    <row r="19" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I19" t="str">
+        <v>HPL(SE1) MSK(AE12)</v>
+      </c>
+    </row>
+    <row r="20" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I20" t="str">
+        <v>HPL(SE2) MSK(AE11)</v>
+      </c>
+    </row>
+    <row r="21" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I21" t="str">
+        <v>HPL(SE3) MSK(AE15)</v>
+      </c>
+    </row>
+    <row r="22" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I22" t="str">
+        <v>MSC(HIMALAYA)</v>
+      </c>
+    </row>
+    <row r="23" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I23" t="str">
+        <v>MSC(JADE)</v>
+      </c>
+    </row>
+    <row r="24" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I24" t="str">
+        <v>WHL(FM1)</v>
+      </c>
+    </row>
+    <row r="25" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I25" t="str">
+        <v>ZIM(ZMP)</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>